--- a/Data_Set/MathSAT.xlsx
+++ b/Data_Set/MathSAT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUBJEK PENGAJARAN\MRTB1123_Applied Stat for BI\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39CDE7-195F-4EFC-A890-ACD9C9A11114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="9405" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -93,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -171,14 +177,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -288,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,21 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -498,9 +507,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1967</v>
+        <v>1986</v>
       </c>
       <c r="B2" s="2">
         <v>540</v>
@@ -521,9 +530,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>1968</v>
+        <v>1987</v>
       </c>
       <c r="B3" s="2">
         <v>541</v>
@@ -544,9 +553,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1969</v>
+        <v>1988</v>
       </c>
       <c r="B4" s="2">
         <v>536</v>
@@ -567,9 +576,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1970</v>
+        <v>1989</v>
       </c>
       <c r="B5" s="2">
         <v>536</v>
@@ -590,9 +599,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1971</v>
+        <v>1990</v>
       </c>
       <c r="B6" s="2">
         <v>531</v>
@@ -613,9 +622,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1972</v>
+        <v>1991</v>
       </c>
       <c r="B7" s="2">
         <v>531</v>
@@ -636,9 +645,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>1973</v>
+        <v>1992</v>
       </c>
       <c r="B8" s="2">
         <v>523</v>
@@ -659,9 +668,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>1974</v>
+        <v>1993</v>
       </c>
       <c r="B9" s="2">
         <v>524</v>
@@ -682,9 +691,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>1975</v>
+        <v>1994</v>
       </c>
       <c r="B10" s="2">
         <v>515</v>
@@ -705,9 +714,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>1976</v>
+        <v>1995</v>
       </c>
       <c r="B11" s="2">
         <v>511</v>
@@ -728,9 +737,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>1977</v>
+        <v>1996</v>
       </c>
       <c r="B12" s="2">
         <v>509</v>
@@ -751,9 +760,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>1978</v>
+        <v>1997</v>
       </c>
       <c r="B13" s="2">
         <v>511</v>
@@ -774,9 +783,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>1979</v>
+        <v>1998</v>
       </c>
       <c r="B14" s="2">
         <v>509</v>
@@ -797,9 +806,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>1980</v>
+        <v>1999</v>
       </c>
       <c r="B15" s="2">
         <v>506</v>
@@ -820,9 +829,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="B16" s="2">
         <v>508</v>
@@ -843,9 +852,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>1982</v>
+        <v>2001</v>
       </c>
       <c r="B17" s="2">
         <v>509</v>
@@ -866,9 +875,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>1983</v>
+        <v>2002</v>
       </c>
       <c r="B18" s="2">
         <v>508</v>
@@ -889,9 +898,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1984</v>
+        <v>2003</v>
       </c>
       <c r="B19" s="2">
         <v>511</v>
@@ -912,9 +921,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1985</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2">
         <v>514</v>
@@ -935,9 +944,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="2">
         <v>515</v>
@@ -958,9 +967,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>1987</v>
+        <v>2006</v>
       </c>
       <c r="B22" s="2">
         <v>512</v>
@@ -981,9 +990,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="B23" s="2">
         <v>512</v>
@@ -1004,9 +1013,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="B24" s="2">
         <v>510</v>
@@ -1027,9 +1036,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="B25" s="2">
         <v>505</v>
@@ -1050,9 +1059,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="B26" s="2">
         <v>503</v>
@@ -1073,9 +1082,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="B27" s="2">
         <v>504</v>
@@ -1096,9 +1105,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="B28" s="2">
         <v>504</v>
@@ -1119,9 +1128,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>1994</v>
+        <v>2013</v>
       </c>
       <c r="B29" s="2">
         <v>501</v>
@@ -1142,9 +1151,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="B30" s="2">
         <v>505</v>
@@ -1165,9 +1174,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>1996</v>
+        <v>2015</v>
       </c>
       <c r="B31" s="2">
         <v>507</v>
@@ -1188,9 +1197,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1997</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2016</v>
       </c>
       <c r="B32" s="2">
         <v>507</v>
@@ -1211,9 +1220,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1998</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2017</v>
       </c>
       <c r="B33" s="2">
         <v>509</v>
@@ -1234,9 +1243,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>1999</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2018</v>
       </c>
       <c r="B34" s="2">
         <v>509</v>
@@ -1257,9 +1266,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>2000</v>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2019</v>
       </c>
       <c r="B35" s="2">
         <v>507</v>
@@ -1280,9 +1289,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>2001</v>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2020</v>
       </c>
       <c r="B36" s="2">
         <v>509</v>
@@ -1303,9 +1312,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>2002</v>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2021</v>
       </c>
       <c r="B37" s="2">
         <v>507</v>
@@ -1326,9 +1335,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>2003</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2022</v>
       </c>
       <c r="B38" s="2">
         <v>512</v>
@@ -1349,9 +1358,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>2004</v>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2023</v>
       </c>
       <c r="B39" s="2">
         <v>512</v>
@@ -1372,9 +1381,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>2005</v>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2024</v>
       </c>
       <c r="B40" s="2">
         <v>513</v>
@@ -1404,26 +1413,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>12</v>
       </c>
